--- a/LEhangtags上傳用檔案.xlsx
+++ b/LEhangtags上傳用檔案.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cindy.huang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggytest/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591B534C-936E-C245-BB78-C2A2A3A19CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2280" windowWidth="29040" windowHeight="15840" tabRatio="747"/>
+    <workbookView xWindow="58580" yWindow="3820" windowWidth="29040" windowHeight="15840" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dodgeville" sheetId="20" r:id="rId1"/>
@@ -31,7 +32,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Dodgeville!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">PR!$6:$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="PRINT VIEW" guid="{822C5E36-B023-4422-A683-3CC2DC5375EB}" maximized="1" windowWidth="1020" windowHeight="553" activeSheetId="7"/>
   </customWorkbookViews>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="222">
   <si>
     <t>Style #</t>
   </si>
@@ -893,11 +894,15 @@
     </r>
     <phoneticPr fontId="39" type="noConversion"/>
   </si>
+  <si>
+    <t>Sample Type</t>
+    <phoneticPr fontId="39" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
@@ -2344,6 +2349,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2365,23 +2378,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal_Photo Sample Order Sheet template" xfId="5"/>
-    <cellStyle name="Normal_TAL" xfId="6"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Photo Sample Order Sheet template" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_TAL" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -2470,7 +2475,7 @@
         <xdr:cNvPr id="8" name="文字方塊 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2546,7 @@
         <xdr:cNvPr id="16" name="文字方塊 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2622,7 @@
         <xdr:cNvPr id="7173" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000051C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000051C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2693,7 @@
         <xdr:cNvPr id="2088" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000028080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000028080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2740,9 +2745,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2780,9 +2785,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2817,7 +2822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2852,7 +2857,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3025,7 +3030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="57"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -3033,24 +3038,24 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.85546875" style="65" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="83" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.83203125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="83" customWidth="1"/>
     <col min="6" max="6" width="8" style="65" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" style="84" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="84" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="84" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="85" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="65" customWidth="1"/>
+    <col min="7" max="7" width="38.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="65" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="84" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="84" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="85" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="65" customWidth="1"/>
     <col min="13" max="13" width="14" style="65" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="214" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="65"/>
+    <col min="14" max="14" width="11.6640625" style="214" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
@@ -3114,7 +3119,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="211"/>
     </row>
-    <row r="5" spans="1:14" s="28" customFormat="1" ht="45.75" thickTop="1">
+    <row r="5" spans="1:14" s="28" customFormat="1" ht="49" thickTop="1">
       <c r="A5" s="208" t="s">
         <v>213</v>
       </c>
@@ -3152,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="N5" s="212" t="s">
         <v>6</v>
@@ -3348,7 +3353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet12">
     <tabColor indexed="57"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -3361,41 +3366,41 @@
       <selection pane="bottomLeft" activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="82" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="65" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="83" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="84" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="84" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="84" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="65" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="82" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="83" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="84" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="65" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="84" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="85" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="65" customWidth="1"/>
     <col min="11" max="11" width="14" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="65" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="65" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="65" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="65" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" style="86" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="86" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="86" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="86" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" style="86" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" style="86" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="65" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.6640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" style="86" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="86" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="86" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" style="86" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="86" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="14" style="86" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="86" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="86" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5" style="86" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="86" hidden="1" customWidth="1"/>
     <col min="28" max="29" width="12" style="65" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="16.85546875" style="65" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="11.140625" style="65" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" style="65" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" style="65" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="18.7109375" style="65" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="65"/>
+    <col min="30" max="30" width="16.83203125" style="65" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="11.1640625" style="65" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1640625" style="65" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="65" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="18.6640625" style="65" customWidth="1"/>
+    <col min="36" max="16384" width="9.1640625" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="21" customHeight="1">
@@ -3583,7 +3588,7 @@
       <c r="AH4" s="231"/>
       <c r="AI4" s="14"/>
     </row>
-    <row r="5" spans="1:35" s="4" customFormat="1" ht="45.75" thickTop="1">
+    <row r="5" spans="1:35" s="4" customFormat="1" ht="49" thickTop="1">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -3840,7 +3845,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="Date required_x000a_Use MM/DD/YY Formatting" sqref="R7">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="Date required_x000a_Use MM/DD/YY Formatting" sqref="R7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>36892</formula1>
     </dataValidation>
   </dataValidations>
@@ -3854,7 +3859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor indexed="10"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3865,37 +3870,37 @@
       <selection activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="154.85546875" customWidth="1"/>
+    <col min="1" max="1" width="154.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="14">
       <c r="A1" s="182" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="14">
       <c r="A2" s="183" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="14">
       <c r="A3" s="183" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="14">
       <c r="A4" s="49" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="14">
       <c r="A5" s="49" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="14">
       <c r="A6" s="184" t="s">
         <v>148</v>
       </c>
@@ -3903,12 +3908,12 @@
     <row r="7" spans="1:1">
       <c r="A7" s="15"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="14">
       <c r="A8" s="155" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="25.5">
+    <row r="9" spans="1:1" ht="28">
       <c r="A9" s="185" t="s">
         <v>150</v>
       </c>
@@ -3921,22 +3926,22 @@
     <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="14">
       <c r="A12" s="158" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" ht="14">
       <c r="A13" s="186" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" ht="14">
       <c r="A14" s="49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" ht="14">
       <c r="A15" s="49" t="s">
         <v>155</v>
       </c>
@@ -3944,12 +3949,12 @@
     <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="14">
       <c r="A17" s="187" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="14">
       <c r="A18" s="183" t="s">
         <v>157</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="14">
       <c r="A21" s="189" t="s">
         <v>158</v>
       </c>
@@ -4012,32 +4017,32 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" ht="14">
       <c r="A32" s="189" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" ht="14">
       <c r="A33" s="189" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="25.5">
+    <row r="34" spans="1:1" ht="28">
       <c r="A34" s="193" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" ht="14">
       <c r="A35" s="193" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" ht="14">
       <c r="A36" s="193" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" ht="14">
       <c r="A37" s="193" t="s">
         <v>166</v>
       </c>
@@ -4047,137 +4052,137 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" ht="14">
       <c r="A40" s="195" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="25.5">
+    <row r="41" spans="1:1" ht="28">
       <c r="A41" s="196" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" ht="14">
       <c r="A42" s="197" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" ht="14">
       <c r="A43" s="197" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" ht="14">
       <c r="A44" s="198" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" ht="14">
       <c r="A45" s="198" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" ht="14">
       <c r="A46" s="198" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" ht="14">
       <c r="A47" s="198" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" ht="14">
       <c r="A48" s="198" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" ht="14">
       <c r="A49" s="198" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" ht="14">
       <c r="A50" s="198" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" ht="14">
       <c r="A51" s="198" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" ht="14">
       <c r="A52" s="198" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" ht="14">
       <c r="A53" s="198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" ht="14">
       <c r="A54" s="198" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" ht="14">
       <c r="A55" s="198" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" ht="14">
       <c r="A56" s="198" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" ht="14">
       <c r="A57" s="198" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" ht="14">
       <c r="A58" s="198" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" ht="14">
       <c r="A59" s="198" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" ht="14">
       <c r="A60" s="198" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" ht="14">
       <c r="A61" s="197" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" ht="14">
       <c r="A62" s="196" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" ht="14">
       <c r="A63" s="197" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" ht="14">
       <c r="A64" s="197" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" ht="14">
       <c r="A65" s="197" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" ht="14">
       <c r="A66" s="197" t="s">
         <v>194</v>
       </c>
@@ -4199,8 +4204,8 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1"/>
-    <hyperlink ref="A26" r:id="rId2"/>
+    <hyperlink ref="A24" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A26" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId3"/>
@@ -4212,7 +4217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
@@ -4224,36 +4229,36 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="65" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="83" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="83" customWidth="1"/>
     <col min="4" max="4" width="8" style="65" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="84" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="84" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="84" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="65" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="84" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="65" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="84" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="85" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="65" customWidth="1"/>
     <col min="11" max="11" width="14" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="65" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="65" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="65" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="65" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" style="86" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="86" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="65"/>
-    <col min="26" max="26" width="10.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" style="65"/>
-    <col min="30" max="30" width="10.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="65"/>
-    <col min="32" max="32" width="18.7109375" style="65" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="65"/>
+    <col min="16" max="16" width="13.1640625" style="65" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.6640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" style="86" customWidth="1"/>
+    <col min="21" max="21" width="6.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.1640625" style="65"/>
+    <col min="26" max="26" width="10.83203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="9.1640625" style="65"/>
+    <col min="30" max="30" width="10.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" style="65"/>
+    <col min="32" max="32" width="18.6640625" style="65" customWidth="1"/>
+    <col min="33" max="16384" width="9.1640625" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="2" customFormat="1" ht="15" customHeight="1">
@@ -4411,7 +4416,7 @@
       <c r="AE4" s="233"/>
       <c r="AF4" s="233"/>
     </row>
-    <row r="5" spans="1:32" s="28" customFormat="1" ht="45.75" thickTop="1">
+    <row r="5" spans="1:32" s="28" customFormat="1" ht="49" thickTop="1">
       <c r="A5" s="11" t="s">
         <v>79</v>
       </c>
@@ -4638,7 +4643,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="Date required_x000a_Use MM/DD/YY Formatting" sqref="R7">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="Date required_x000a_Use MM/DD/YY Formatting" sqref="R7" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>36892</formula1>
     </dataValidation>
   </dataValidations>
@@ -4652,7 +4657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor indexed="56"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4663,13 +4668,13 @@
       <selection activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1">
@@ -4682,7 +4687,7 @@
       <c r="E1" s="235"/>
       <c r="F1" s="235"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="200" t="s">
         <v>23</v>
       </c>
@@ -4694,7 +4699,7 @@
       <c r="E2" s="202"/>
       <c r="F2" s="202"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="202"/>
       <c r="B3" s="201" t="s">
         <v>121</v>
@@ -4704,7 +4709,7 @@
       <c r="E3" s="202"/>
       <c r="F3" s="202"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="202"/>
       <c r="B4" s="201" t="s">
         <v>84</v>
@@ -4714,7 +4719,7 @@
       <c r="E4" s="202"/>
       <c r="F4" s="202"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="202"/>
       <c r="B5" s="201"/>
       <c r="C5" s="202"/>
@@ -4722,7 +4727,7 @@
       <c r="E5" s="202"/>
       <c r="F5" s="202"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="202"/>
       <c r="B6" s="202"/>
       <c r="C6" s="202"/>
@@ -4730,7 +4735,7 @@
       <c r="E6" s="202"/>
       <c r="F6" s="202"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="202"/>
       <c r="B7" s="202"/>
       <c r="C7" s="202"/>
@@ -4738,7 +4743,7 @@
       <c r="E7" s="202"/>
       <c r="F7" s="202"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="203" t="s">
         <v>15</v>
       </c>
@@ -4754,7 +4759,7 @@
       <c r="E8" s="202"/>
       <c r="F8" s="202"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="204" t="s">
         <v>137</v>
       </c>
@@ -4785,7 +4790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -4793,13 +4798,13 @@
       <selection activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1">
@@ -4812,7 +4817,7 @@
       <c r="E1" s="235"/>
       <c r="F1" s="235"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="200" t="s">
         <v>23</v>
       </c>
@@ -4824,7 +4829,7 @@
       <c r="E2" s="202"/>
       <c r="F2" s="202"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="202"/>
       <c r="B3" s="201" t="s">
         <v>197</v>
@@ -4834,7 +4839,7 @@
       <c r="E3" s="202"/>
       <c r="F3" s="202"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="202"/>
       <c r="B4" s="201" t="s">
         <v>198</v>
@@ -4844,7 +4849,7 @@
       <c r="E4" s="202"/>
       <c r="F4" s="202"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="202"/>
       <c r="B5" s="201" t="s">
         <v>199</v>
@@ -4854,7 +4859,7 @@
       <c r="E5" s="202"/>
       <c r="F5" s="202"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="202"/>
       <c r="B6" s="202" t="s">
         <v>200</v>
@@ -4864,7 +4869,7 @@
       <c r="E6" s="202"/>
       <c r="F6" s="202"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="202"/>
       <c r="B7" s="202"/>
       <c r="C7" s="202"/>
@@ -4872,7 +4877,7 @@
       <c r="E7" s="202"/>
       <c r="F7" s="202"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="203" t="s">
         <v>15</v>
       </c>
@@ -4888,7 +4893,7 @@
       <c r="E8" s="202"/>
       <c r="F8" s="202"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="204" t="s">
         <v>137</v>
       </c>
@@ -4914,7 +4919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -4924,17 +4929,17 @@
       <selection activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
+    <row r="1" spans="1:6" ht="20">
       <c r="A1" s="159"/>
       <c r="B1" s="177" t="s">
         <v>134</v>
@@ -4945,7 +4950,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="162"/>
       <c r="B2" s="207" t="s">
         <v>83</v>
@@ -4978,7 +4983,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" thickBot="1">
+    <row r="5" spans="1:6" ht="14" thickBot="1">
       <c r="A5" s="164" t="s">
         <v>30</v>
       </c>
@@ -4997,7 +5002,7 @@
       <c r="C6" s="206"/>
       <c r="D6" s="181"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1">
+    <row r="7" spans="1:6" ht="14" thickBot="1">
       <c r="A7" s="164"/>
       <c r="B7" s="206"/>
       <c r="C7" s="206"/>
@@ -5041,13 +5046,13 @@
       <c r="C12" s="166"/>
       <c r="D12" s="178"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="173"/>
       <c r="B13" s="171"/>
       <c r="C13" s="166"/>
       <c r="D13" s="178"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="173"/>
       <c r="B14" s="171"/>
       <c r="C14" s="166"/>
@@ -5173,7 +5178,7 @@
       <c r="C34" s="166"/>
       <c r="D34" s="178"/>
     </row>
-    <row r="35" spans="1:4" ht="13.5" thickBot="1">
+    <row r="35" spans="1:4" ht="14" thickBot="1">
       <c r="A35" s="175"/>
       <c r="B35" s="176"/>
       <c r="C35" s="176"/>
@@ -5187,7 +5192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet4">
     <tabColor indexed="56"/>
   </sheetPr>
@@ -5197,13 +5202,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
@@ -5221,7 +5226,7 @@
       <c r="J1" s="127"/>
       <c r="K1" s="127"/>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="128" t="s">
         <v>73</v>
       </c>
@@ -5355,7 +5360,7 @@
       <c r="J11" s="127"/>
       <c r="K11" s="127"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:11" ht="16">
       <c r="A14" s="131" t="s">
         <v>23</v>
       </c>
@@ -5372,7 +5377,7 @@
       <c r="J14" s="138"/>
       <c r="K14" s="127"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" ht="16">
       <c r="A15" s="131"/>
       <c r="B15" s="149" t="s">
         <v>122</v>
@@ -5387,7 +5392,7 @@
       <c r="J15" s="138"/>
       <c r="K15" s="127"/>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:11" ht="14">
       <c r="A16" s="127"/>
       <c r="B16" s="150" t="s">
         <v>124</v>
@@ -5402,7 +5407,7 @@
       <c r="J16" s="140"/>
       <c r="K16" s="139"/>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:11" ht="14">
       <c r="A17" s="127"/>
       <c r="B17" s="150" t="s">
         <v>123</v>
@@ -5417,7 +5422,7 @@
       <c r="J17" s="140"/>
       <c r="K17" s="139"/>
     </row>
-    <row r="18" spans="1:11" ht="15">
+    <row r="18" spans="1:11" ht="14">
       <c r="A18" s="127"/>
       <c r="B18" s="150" t="s">
         <v>125</v>
@@ -5432,7 +5437,7 @@
       <c r="J18" s="139"/>
       <c r="K18" s="139"/>
     </row>
-    <row r="19" spans="1:11" ht="15">
+    <row r="19" spans="1:11" ht="14">
       <c r="A19" s="127"/>
       <c r="B19" s="151" t="s">
         <v>130</v>
@@ -5447,7 +5452,7 @@
       <c r="J19" s="139"/>
       <c r="K19" s="139"/>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11" ht="14">
       <c r="A20" s="127"/>
       <c r="B20" s="150" t="s">
         <v>81</v>
@@ -5462,7 +5467,7 @@
       <c r="J20" s="139"/>
       <c r="K20" s="139"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" ht="16">
       <c r="A21" s="131"/>
       <c r="B21" s="152" t="s">
         <v>131</v>
@@ -5477,7 +5482,7 @@
       <c r="J21" s="127"/>
       <c r="K21" s="127"/>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11" ht="14">
       <c r="A22" s="127"/>
       <c r="E22" s="127"/>
       <c r="F22" s="140"/>
@@ -5487,7 +5492,7 @@
       <c r="J22" s="127"/>
       <c r="K22" s="127"/>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11" ht="14">
       <c r="A23" s="127"/>
       <c r="E23" s="127"/>
       <c r="F23" s="140"/>
@@ -5497,7 +5502,7 @@
       <c r="J23" s="127"/>
       <c r="K23" s="127"/>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11" ht="14">
       <c r="A24" s="127"/>
       <c r="E24" s="127"/>
       <c r="F24" s="139"/>
@@ -5507,7 +5512,7 @@
       <c r="J24" s="127"/>
       <c r="K24" s="127"/>
     </row>
-    <row r="25" spans="1:11" ht="15">
+    <row r="25" spans="1:11" ht="14">
       <c r="A25" s="127"/>
       <c r="E25" s="127"/>
       <c r="F25" s="139"/>
@@ -5517,7 +5522,7 @@
       <c r="J25" s="127"/>
       <c r="K25" s="127"/>
     </row>
-    <row r="26" spans="1:11" ht="15">
+    <row r="26" spans="1:11" ht="14">
       <c r="A26" s="127"/>
       <c r="E26" s="127"/>
       <c r="F26" s="139"/>
@@ -5527,7 +5532,7 @@
       <c r="J26" s="127"/>
       <c r="K26" s="127"/>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11" ht="14">
       <c r="A27" s="127"/>
       <c r="E27" s="127"/>
       <c r="F27" s="139"/>
@@ -5537,7 +5542,7 @@
       <c r="J27" s="127"/>
       <c r="K27" s="127"/>
     </row>
-    <row r="28" spans="1:11" ht="15">
+    <row r="28" spans="1:11" ht="14">
       <c r="A28" s="127"/>
       <c r="E28" s="127"/>
       <c r="F28" s="139"/>
@@ -5589,7 +5594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet6">
     <tabColor indexed="14"/>
   </sheetPr>
@@ -5599,15 +5604,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="1" spans="1:9" ht="14" thickBot="1"/>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="32"/>
       <c r="B2" s="39"/>
@@ -5667,7 +5672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" thickBot="1">
+    <row r="7" spans="1:9" ht="14" thickBot="1">
       <c r="B7" s="45" t="s">
         <v>30</v>
       </c>
@@ -5848,15 +5853,15 @@
       </c>
       <c r="F30" s="44"/>
     </row>
-    <row r="31" spans="2:6" ht="13.5" thickBot="1">
+    <row r="31" spans="2:6" ht="14" thickBot="1">
       <c r="B31" s="43"/>
       <c r="F31" s="44"/>
     </row>
-    <row r="32" spans="2:6" ht="25.5">
-      <c r="B32" s="251" t="s">
+    <row r="32" spans="2:6" ht="28">
+      <c r="B32" s="240" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="252"/>
+      <c r="C32" s="241"/>
       <c r="D32" s="37" t="s">
         <v>57</v>
       </c>
@@ -5868,125 +5873,132 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="247"/>
-      <c r="C33" s="248"/>
+      <c r="B33" s="238"/>
+      <c r="C33" s="239"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="34"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="247"/>
-      <c r="C34" s="248"/>
+      <c r="B34" s="238"/>
+      <c r="C34" s="239"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="34"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="247"/>
-      <c r="C35" s="248"/>
+      <c r="B35" s="238"/>
+      <c r="C35" s="239"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="34"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="247"/>
-      <c r="C36" s="248"/>
+      <c r="B36" s="238"/>
+      <c r="C36" s="239"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="247"/>
-      <c r="C37" s="248"/>
+      <c r="B37" s="238"/>
+      <c r="C37" s="239"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="34"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="247"/>
-      <c r="C38" s="248"/>
+      <c r="B38" s="238"/>
+      <c r="C38" s="239"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="34"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="247"/>
-      <c r="C39" s="248"/>
+      <c r="B39" s="238"/>
+      <c r="C39" s="239"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="34"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="247"/>
-      <c r="C40" s="248"/>
+      <c r="B40" s="238"/>
+      <c r="C40" s="239"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="34"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="247"/>
-      <c r="C41" s="248"/>
+      <c r="B41" s="238"/>
+      <c r="C41" s="239"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="34"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="247"/>
-      <c r="C42" s="248"/>
+      <c r="B42" s="238"/>
+      <c r="C42" s="239"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="34"/>
     </row>
-    <row r="43" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B43" s="249"/>
-      <c r="C43" s="250"/>
+    <row r="43" spans="2:6" ht="14" thickBot="1">
+      <c r="B43" s="251"/>
+      <c r="C43" s="252"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="36"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="238" t="s">
+      <c r="B44" s="242" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="239"/>
-      <c r="D44" s="239"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="240"/>
+      <c r="C44" s="243"/>
+      <c r="D44" s="243"/>
+      <c r="E44" s="243"/>
+      <c r="F44" s="244"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="241"/>
-      <c r="C45" s="242"/>
-      <c r="D45" s="242"/>
-      <c r="E45" s="242"/>
-      <c r="F45" s="243"/>
+      <c r="B45" s="245"/>
+      <c r="C45" s="246"/>
+      <c r="D45" s="246"/>
+      <c r="E45" s="246"/>
+      <c r="F45" s="247"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="241"/>
-      <c r="C46" s="242"/>
-      <c r="D46" s="242"/>
-      <c r="E46" s="242"/>
-      <c r="F46" s="243"/>
+      <c r="B46" s="245"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="246"/>
+      <c r="E46" s="246"/>
+      <c r="F46" s="247"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="241" t="s">
+      <c r="B47" s="245" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="242"/>
-      <c r="D47" s="242"/>
-      <c r="E47" s="242"/>
-      <c r="F47" s="243"/>
-    </row>
-    <row r="48" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B48" s="244" t="s">
+      <c r="C47" s="246"/>
+      <c r="D47" s="246"/>
+      <c r="E47" s="246"/>
+      <c r="F47" s="247"/>
+    </row>
+    <row r="48" spans="2:6" ht="14" thickBot="1">
+      <c r="B48" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="245"/>
-      <c r="D48" s="245"/>
-      <c r="E48" s="245"/>
-      <c r="F48" s="246"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="249"/>
+      <c r="E48" s="249"/>
+      <c r="F48" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B44:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
@@ -5995,13 +6007,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B44:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
